--- a/dados/empresa_en.xlsx
+++ b/dados/empresa_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iury\Desktop\IFEmpresas\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E7DF2-4840-4F19-883C-D2B747AF83EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC8E2BA-5AD7-4394-8E59-1C78A8C6E8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14655" yWindow="1065" windowWidth="13110" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
   <si>
     <t>COMPANY_NAME</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Av. Astolfo Dutra, 70 - Centro</t>
   </si>
   <si>
-    <t>Serviços &amp; Tecnologia</t>
-  </si>
-  <si>
     <t>https://leopoldinense.com.br/images/noticias/24882/05092448_P4280011.JPG</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Av. Manoel Inácio Peixoto, 2147 - Industrial - Cataguases – MG</t>
   </si>
   <si>
-    <t>Indústria, Petróleo e Gás</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/qfGP7aT.png</t>
   </si>
   <si>
@@ -93,18 +87,12 @@
     <t>R. Ten. Fortunato, 183 - Centro - Cataguases – MG</t>
   </si>
   <si>
-    <t>Energia Solar Fotovoltaica</t>
-  </si>
-  <si>
     <t>Industrial Cataguases</t>
   </si>
   <si>
     <t>Praça José Ignácio Peixoto, 28 - Vila Tereza - Cataguases – MG</t>
   </si>
   <si>
-    <t>Indústria Têxtil</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/8d59S79.jpeg</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>R. João Dias Neto, 18 - Vila Reis - Cataguases – MG</t>
   </si>
   <si>
-    <t>Indústria Química</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/YPG7Cpp.png</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <t>R. José Maria Figueiredo Réis, 60 - sala 08 - Centro - Cataguases – MG</t>
   </si>
   <si>
-    <t>Consultoria &amp; Gestão</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/lVRpZ2d.png</t>
   </si>
   <si>
@@ -138,9 +120,6 @@
     <t>R. Ten. Luís Ribeiro, 343 - Vila Domingos Lopes - Cataguases – MG</t>
   </si>
   <si>
-    <t>Varejo de Construção</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/CbSgPvA.png</t>
   </si>
   <si>
@@ -150,9 +129,6 @@
     <t>Av. das Industrias - Cataguases – MG</t>
   </si>
   <si>
-    <t>Comércio Exterior Têxtil</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/qv4rD3K.jpeg</t>
   </si>
   <si>
@@ -162,9 +138,6 @@
     <t>R. Cel. João Duarte, 120 - Centro - Cataguases – MG</t>
   </si>
   <si>
-    <t>Food Service &amp; Hospitalidade</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/U3pUuOh.jpeg</t>
   </si>
   <si>
@@ -174,18 +147,12 @@
     <t>Av. Manoel Inacio Peixoto, 300 Distrito Industrial - Cataguases – MG</t>
   </si>
   <si>
-    <t>Indústria de Alimentos</t>
-  </si>
-  <si>
     <t>Desert Wear</t>
   </si>
   <si>
     <t>Rua Maria Gracioli, 90 - Taquara Preta - Cataguases – MG</t>
   </si>
   <si>
-    <t>Moda Streetwear</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/IRAwvcn.png</t>
   </si>
   <si>
@@ -195,16 +162,10 @@
     <t>Rua Nogueira Neves, 359, Edifício Renascença, Centro, Cataguases - MG</t>
   </si>
   <si>
-    <t>Serviços Contábeis</t>
-  </si>
-  <si>
     <t>Doces Dellé</t>
   </si>
   <si>
     <t>R. Maria de Castro Lôbo, 479 - Centro, Santana de Cataguases - MG</t>
-  </si>
-  <si>
-    <t>Indústria de alimentos</t>
   </si>
   <si>
     <t>https://i.imgur.com/ZOE8CIG.jpeg</t>
@@ -404,6 +365,42 @@
   </si>
   <si>
     <t>Local Demand</t>
+  </si>
+  <si>
+    <t>Services &amp; Technology</t>
+  </si>
+  <si>
+    <t>Industry, Oil, and Gas</t>
+  </si>
+  <si>
+    <t>Photovoltaic Solar Energy</t>
+  </si>
+  <si>
+    <t>Textile Industry</t>
+  </si>
+  <si>
+    <t>Chemical Industry</t>
+  </si>
+  <si>
+    <t>Consulting &amp; Management</t>
+  </si>
+  <si>
+    <t>Construction Retail</t>
+  </si>
+  <si>
+    <t>Textile Foreign Trade</t>
+  </si>
+  <si>
+    <t>Food Service &amp; Hospitality</t>
+  </si>
+  <si>
+    <t>Food Industry</t>
+  </si>
+  <si>
+    <t>Streetwear Fashion</t>
+  </si>
+  <si>
+    <t>Accounting Services</t>
   </si>
 </sst>
 </file>
@@ -776,14 +773,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.7109375" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="251" bestFit="1" customWidth="1"/>
@@ -843,36 +841,36 @@
         <v>-42.694171935932403</v>
       </c>
       <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
       <c r="H2">
         <v>19000</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
         <v>78</v>
       </c>
-      <c r="K2" t="s">
-        <v>91</v>
-      </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3">
         <v>-21.407143627847301</v>
@@ -881,36 +879,36 @@
         <v>-42.674585818645198</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>7000</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>-21.390943205703898</v>
@@ -919,33 +917,33 @@
         <v>-42.6930428478218</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>-21.392621051068001</v>
@@ -954,36 +952,36 @@
         <v>-42.693840423037301</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>3000</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>-21.386211699351101</v>
@@ -992,36 +990,36 @@
         <v>-42.6813925609733</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>500</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>-21.385329690959399</v>
@@ -1030,36 +1028,36 @@
         <v>-42.690337888294103</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H7">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>-21.379918079940701</v>
@@ -1068,36 +1066,36 @@
         <v>-42.690647099514599</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>-21.407404053218102</v>
@@ -1106,36 +1104,36 @@
         <v>-42.683095259235003</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>-21.387587010864699</v>
@@ -1144,36 +1142,36 @@
         <v>-42.692988753721103</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>-21.4071550414189</v>
@@ -1182,33 +1180,33 @@
         <v>-42.680817533990499</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H11">
         <v>800</v>
       </c>
       <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
         <v>74</v>
       </c>
-      <c r="J11" t="s">
-        <v>87</v>
-      </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>-21.406251999999999</v>
@@ -1217,36 +1215,36 @@
         <v>-42.671813</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
         <v>75</v>
       </c>
-      <c r="J12" t="s">
-        <v>88</v>
-      </c>
       <c r="K12" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>-21.3879838012598</v>
@@ -1255,33 +1253,33 @@
         <v>-42.689765405154922</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H13">
         <v>44</v>
       </c>
       <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
         <v>76</v>
       </c>
-      <c r="J13" t="s">
-        <v>89</v>
-      </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>-21.286349814241419</v>
@@ -1290,25 +1288,25 @@
         <v>-42.555936863134512</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H14">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/dados/empresa_en.xlsx
+++ b/dados/empresa_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iury\Desktop\IFEmpresas\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC8E2BA-5AD7-4394-8E59-1C78A8C6E8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2E8F1D-7261-4E7A-A160-074E74E9B872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14655" yWindow="1065" windowWidth="13110" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>COMPANY_NAME</t>
   </si>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,6 +1305,9 @@
       <c r="J14" t="s">
         <v>77</v>
       </c>
+      <c r="K14" t="s">
+        <v>89</v>
+      </c>
       <c r="L14" t="s">
         <v>85</v>
       </c>

--- a/dados/empresa_en.xlsx
+++ b/dados/empresa_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iury\Desktop\IFEmpresas\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2E8F1D-7261-4E7A-A160-074E74E9B872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B03CFED-3456-4B45-8453-3D1A991DE6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="1065" windowWidth="13110" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12330" yWindow="1785" windowWidth="13110" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
   <si>
     <t>COMPANY_NAME</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Praça José Ignácio Peixoto, 28 - Vila Tereza - Cataguases – MG</t>
   </si>
   <si>
-    <t>https://i.imgur.com/8d59S79.jpeg</t>
-  </si>
-  <si>
     <t>Hidroazul</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>Rua Maria Gracioli, 90 - Taquara Preta - Cataguases – MG</t>
-  </si>
-  <si>
-    <t>https://i.imgur.com/IRAwvcn.png</t>
   </si>
   <si>
     <t>Precisão Contabilidade</t>
@@ -402,12 +396,27 @@
   <si>
     <t>Accounting Services</t>
   </si>
+  <si>
+    <t>https://i.imgur.com/oca0Omy.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fjyXJdf.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/9vuBcpa.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/fd16ZiH.jpeg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XKGEOuR.jpeg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +437,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Proxima Nova Regular&quot;"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,7 +474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -460,20 +497,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0D0D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8E8E8"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0D0D0"/>
+          <bgColor rgb="FFD0D0D0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8E8E8"/>
+          <bgColor rgb="FFE8E8E8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0D0D0"/>
+          <bgColor rgb="FFD0D0D0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -774,22 +898,24 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.7109375" customWidth="1"/>
+    <col min="7" max="7" width="72" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="251" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -841,31 +967,31 @@
         <v>-42.694171935932403</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H2">
         <v>19000</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -879,31 +1005,31 @@
         <v>-42.674585818645198</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H3">
         <v>7000</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -917,28 +1043,31 @@
         <v>-42.6930428478218</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -952,36 +1081,36 @@
         <v>-42.693840423037301</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
+        <v>49</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="H5">
         <v>3000</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
       <c r="C6">
         <v>-21.386211699351101</v>
@@ -990,36 +1119,36 @@
         <v>-42.6813925609733</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H6">
         <v>500</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
       </c>
       <c r="C7">
         <v>-21.385329690959399</v>
@@ -1028,36 +1157,36 @@
         <v>-42.690337888294103</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H7">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
       </c>
       <c r="C8">
         <v>-21.379918079940701</v>
@@ -1066,36 +1195,36 @@
         <v>-42.690647099514599</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H8">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
       </c>
       <c r="C9">
         <v>-21.407404053218102</v>
@@ -1104,36 +1233,36 @@
         <v>-42.683095259235003</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="H9">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
       </c>
       <c r="C10">
         <v>-21.387587010864699</v>
@@ -1142,36 +1271,36 @@
         <v>-42.692988753721103</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
       </c>
       <c r="C11">
         <v>-21.4071550414189</v>
@@ -1180,33 +1309,36 @@
         <v>-42.680817533990499</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="H11">
         <v>800</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
       </c>
       <c r="C12">
         <v>-21.406251999999999</v>
@@ -1215,36 +1347,36 @@
         <v>-42.671813</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>-21.3879838012598</v>
@@ -1253,33 +1385,36 @@
         <v>-42.689765405154922</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="H13">
         <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>-21.286349814241419</v>
@@ -1288,31 +1423,41 @@
         <v>-42.555936863134512</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="H14">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(LINHA(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD(LINHA(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
